--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>730018.3695487806</v>
+        <v>727316.7216462457</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673423</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663199</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663199</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>88.09081815943067</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>77.08171901666384</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>68.11693918766092</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>92.73964154763111</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846323</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>81.17624990084421</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>34.10833718734057</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>52.21594625443417</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.8707348436268</v>
+        <v>185.1421734110665</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T5" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.0710926941158</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>57.78128418552056</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -990,10 +990,10 @@
         <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
         <v>225.8205739680685</v>
@@ -1038,10 +1038,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>81.96309354221815</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>134.3807354218354</v>
       </c>
     </row>
     <row r="7">
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>31.0007482193069</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>40.20690263795868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>141.2473539394015</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.830884450382</v>
+        <v>11.83088445038201</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>76.62727429151386</v>
+        <v>76.62727429151431</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>251.0679046626562</v>
       </c>
       <c r="V8" t="n">
-        <v>110.8278142942149</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1209,28 +1209,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>3.96405273198027</v>
       </c>
       <c r="D9" t="n">
-        <v>108.9894827918632</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29488917436606</v>
+        <v>94.29488917436612</v>
       </c>
       <c r="I9" t="n">
-        <v>35.56536036433985</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>30.3450364528299</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.178970064727</v>
       </c>
       <c r="T9" t="n">
         <v>192.6772763323794</v>
@@ -1272,13 +1272,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>3.703488463265585</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.89051046332416</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2691031313611</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8761692930954</v>
+        <v>196.8761692930956</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2340827876525</v>
       </c>
       <c r="V10" t="n">
-        <v>165.777957656237</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1373,10 +1373,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>307.6000736915378</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>289.9775033393747</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184546</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615206</v>
       </c>
       <c r="T11" t="n">
-        <v>146.9162128507245</v>
+        <v>201.9388203544491</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,10 +1464,10 @@
         <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812551</v>
+        <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530792</v>
+        <v>10.48847705530785</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>55.99239810849878</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927376</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905241</v>
+        <v>79.81330679905234</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>186.2346889920368</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>17.53779970793459</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187874</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695696</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740349</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>73.22341869628654</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>56.04917322725592</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795604</v>
       </c>
     </row>
     <row r="20">
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856545</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>253.137743155958</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456788</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>191.6604102493268</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187871</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699824</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>119.8099036979376</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890357</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>134.4525633547254</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716015</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>26.13627195705806</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>3.006892987834117</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>172.3645574474243</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>95.12712756824189</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833812</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503966</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,10 +3907,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,13 +3952,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>281.6778446725254</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428179</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>672.2420264262252</v>
+        <v>224.5974673148098</v>
       </c>
       <c r="C2" t="n">
-        <v>482.8222414097404</v>
+        <v>224.5974673148098</v>
       </c>
       <c r="D2" t="n">
-        <v>482.8222414097404</v>
+        <v>224.5974673148098</v>
       </c>
       <c r="E2" t="n">
-        <v>482.8222414097404</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="F2" t="n">
-        <v>293.4024563932556</v>
+        <v>28.23218154912179</v>
       </c>
       <c r="G2" t="n">
-        <v>103.9826713767709</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H2" t="n">
-        <v>103.9826713767709</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J2" t="n">
         <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123829</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020258</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262252</v>
+        <v>672.2420264262245</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262252</v>
+        <v>603.4370373477791</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262252</v>
+        <v>603.4370373477791</v>
       </c>
       <c r="U2" t="n">
-        <v>672.2420264262252</v>
+        <v>414.0172523312945</v>
       </c>
       <c r="V2" t="n">
-        <v>672.2420264262252</v>
+        <v>224.5974673148098</v>
       </c>
       <c r="W2" t="n">
-        <v>672.2420264262252</v>
+        <v>224.5974673148098</v>
       </c>
       <c r="X2" t="n">
-        <v>672.2420264262252</v>
+        <v>224.5974673148098</v>
       </c>
       <c r="Y2" t="n">
-        <v>672.2420264262252</v>
+        <v>224.5974673148098</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>310.4710146076719</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="C3" t="n">
-        <v>310.4710146076719</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="D3" t="n">
-        <v>161.5366049464206</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="E3" t="n">
-        <v>161.5366049464206</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024199</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772647</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140239</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546596</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476343</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017055</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652795</v>
+        <v>676.9378076264271</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652795</v>
+        <v>676.9378076264271</v>
       </c>
       <c r="T3" t="n">
-        <v>560.6825636487947</v>
+        <v>676.9378076264271</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487947</v>
+        <v>487.5180226099425</v>
       </c>
       <c r="V3" t="n">
-        <v>560.6825636487947</v>
+        <v>298.098237593458</v>
       </c>
       <c r="W3" t="n">
-        <v>560.6825636487947</v>
+        <v>298.098237593458</v>
       </c>
       <c r="X3" t="n">
-        <v>478.68635162774</v>
+        <v>108.6784525769734</v>
       </c>
       <c r="Y3" t="n">
-        <v>478.68635162774</v>
+        <v>108.6784525769734</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="C4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="D4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="E4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230175</v>
+        <v>27.03967056230169</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>42.98993985170704</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396313</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="R4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="S4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="T4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="U4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="V4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="W4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="X4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="Y4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330558</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1256.174399222538</v>
+        <v>1396.118167241171</v>
       </c>
       <c r="C5" t="n">
-        <v>1256.174399222538</v>
+        <v>1027.15565030076</v>
       </c>
       <c r="D5" t="n">
-        <v>1256.174399222538</v>
+        <v>1027.15565030076</v>
       </c>
       <c r="E5" t="n">
-        <v>870.3861466242934</v>
+        <v>641.3673977025153</v>
       </c>
       <c r="F5" t="n">
-        <v>459.4002418346858</v>
+        <v>230.3814929129077</v>
       </c>
       <c r="G5" t="n">
         <v>43.36919653809306</v>
@@ -4565,13 +4565,13 @@
         <v>43.36919653809306</v>
       </c>
       <c r="J5" t="n">
-        <v>152.5078184301901</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232718</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711865</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M5" t="n">
         <v>1038.14846457873</v>
@@ -4592,25 +4592,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S5" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T5" t="n">
-        <v>1958.285829056568</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="U5" t="n">
-        <v>1704.678664719077</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="V5" t="n">
-        <v>1704.678664719077</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="W5" t="n">
-        <v>1646.313731198349</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="X5" t="n">
-        <v>1646.313731198349</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="Y5" t="n">
-        <v>1256.174399222538</v>
+        <v>1782.718007305293</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>794.9915800697039</v>
+        <v>339.4826453284327</v>
       </c>
       <c r="C6" t="n">
-        <v>620.5385507885769</v>
+        <v>339.4826453284327</v>
       </c>
       <c r="D6" t="n">
-        <v>471.6041411273256</v>
+        <v>339.4826453284327</v>
       </c>
       <c r="E6" t="n">
-        <v>312.3666861218701</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3666861218701</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G6" t="n">
-        <v>175.490692336986</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H6" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I6" t="n">
         <v>43.36919653809306</v>
@@ -4674,22 +4674,22 @@
         <v>1595.273638474382</v>
       </c>
       <c r="T6" t="n">
-        <v>1595.273638474382</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U6" t="n">
-        <v>1367.172048607646</v>
+        <v>1172.461727081622</v>
       </c>
       <c r="V6" t="n">
-        <v>1132.019940375904</v>
+        <v>937.3096188498796</v>
       </c>
       <c r="W6" t="n">
-        <v>877.782583647702</v>
+        <v>683.072262121678</v>
       </c>
       <c r="X6" t="n">
-        <v>794.9915800697039</v>
+        <v>475.2207619161452</v>
       </c>
       <c r="Y6" t="n">
-        <v>794.9915800697039</v>
+        <v>339.4826453284327</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.2591440360034</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2591440360034</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2591440360034</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2591440360034</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F7" t="n">
         <v>43.36919653809306</v>
@@ -4744,31 +4744,31 @@
         <v>520.2893470405991</v>
       </c>
       <c r="Q7" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="R7" t="n">
-        <v>520.2893470405991</v>
+        <v>466.1525394612431</v>
       </c>
       <c r="S7" t="n">
-        <v>520.2893470405991</v>
+        <v>266.9730538454695</v>
       </c>
       <c r="T7" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="U7" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="V7" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="W7" t="n">
-        <v>230.8721770036385</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X7" t="n">
-        <v>230.8721770036385</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y7" t="n">
-        <v>190.2591440360034</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1288.732535750877</v>
+        <v>867.866396052641</v>
       </c>
       <c r="C8" t="n">
-        <v>1288.732535750877</v>
+        <v>498.9038791122293</v>
       </c>
       <c r="D8" t="n">
-        <v>930.4668371441269</v>
+        <v>140.6381805054788</v>
       </c>
       <c r="E8" t="n">
-        <v>544.6785845458827</v>
+        <v>140.6381805054788</v>
       </c>
       <c r="F8" t="n">
-        <v>537.7330837966792</v>
+        <v>133.6926797562754</v>
       </c>
       <c r="G8" t="n">
-        <v>121.742291422556</v>
+        <v>121.7422914225561</v>
       </c>
       <c r="H8" t="n">
-        <v>121.742291422556</v>
+        <v>121.7422914225561</v>
       </c>
       <c r="I8" t="n">
-        <v>44.34100425941066</v>
+        <v>44.34100425941038</v>
       </c>
       <c r="J8" t="n">
-        <v>156.82805594203</v>
+        <v>156.8280559420282</v>
       </c>
       <c r="K8" t="n">
-        <v>376.1555054002246</v>
+        <v>376.1555054002212</v>
       </c>
       <c r="L8" t="n">
-        <v>685.1523625707944</v>
+        <v>685.1523625707891</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.64034093755</v>
+        <v>1060.640340937543</v>
       </c>
       <c r="N8" t="n">
-        <v>1446.817915733709</v>
+        <v>1446.8179157337</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.13918765951</v>
+        <v>1798.139187659501</v>
       </c>
       <c r="P8" t="n">
-        <v>2063.482764284335</v>
+        <v>2063.482764284323</v>
       </c>
       <c r="Q8" t="n">
-        <v>2214.571993228518</v>
+        <v>2214.571993228505</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.050212970533</v>
+        <v>2217.050212970519</v>
       </c>
       <c r="S8" t="n">
-        <v>2217.050212970533</v>
+        <v>2217.050212970519</v>
       </c>
       <c r="T8" t="n">
-        <v>2007.052422290558</v>
+        <v>2007.052422290544</v>
       </c>
       <c r="U8" t="n">
-        <v>1753.448478186865</v>
+        <v>1753.448478186851</v>
       </c>
       <c r="V8" t="n">
-        <v>1641.501191020991</v>
+        <v>1753.448478186851</v>
       </c>
       <c r="W8" t="n">
-        <v>1288.732535750877</v>
+        <v>1400.679822916737</v>
       </c>
       <c r="X8" t="n">
-        <v>1288.732535750877</v>
+        <v>1400.679822916737</v>
       </c>
       <c r="Y8" t="n">
-        <v>1288.732535750877</v>
+        <v>1010.540490940925</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>765.8284024085719</v>
+        <v>302.8299157359228</v>
       </c>
       <c r="C9" t="n">
-        <v>591.375373127445</v>
+        <v>298.8258220672559</v>
       </c>
       <c r="D9" t="n">
-        <v>481.2849864689973</v>
+        <v>298.8258220672559</v>
       </c>
       <c r="E9" t="n">
-        <v>322.0475314635418</v>
+        <v>139.5883670618004</v>
       </c>
       <c r="F9" t="n">
-        <v>175.5129734904268</v>
+        <v>139.5883670618004</v>
       </c>
       <c r="G9" t="n">
-        <v>175.5129734904268</v>
+        <v>139.5883670618004</v>
       </c>
       <c r="H9" t="n">
-        <v>80.26561068803677</v>
+        <v>44.34100425941038</v>
       </c>
       <c r="I9" t="n">
-        <v>44.34100425941066</v>
+        <v>44.34100425941038</v>
       </c>
       <c r="J9" t="n">
-        <v>92.51967467113519</v>
+        <v>92.51967467113431</v>
       </c>
       <c r="K9" t="n">
-        <v>253.0195209154164</v>
+        <v>253.0195209154145</v>
       </c>
       <c r="L9" t="n">
-        <v>515.1539122572545</v>
+        <v>515.1539122572514</v>
       </c>
       <c r="M9" t="n">
-        <v>840.4092510449742</v>
+        <v>840.4092510449696</v>
       </c>
       <c r="N9" t="n">
-        <v>1188.681775738686</v>
+        <v>1188.68177573868</v>
       </c>
       <c r="O9" t="n">
-        <v>1485.063300074214</v>
+        <v>1485.063300074207</v>
       </c>
       <c r="P9" t="n">
-        <v>1703.602536566944</v>
+        <v>1703.602536566935</v>
       </c>
       <c r="Q9" t="n">
-        <v>1799.771032257641</v>
+        <v>1799.771032257632</v>
       </c>
       <c r="R9" t="n">
-        <v>1799.771032257641</v>
+        <v>1769.119480285077</v>
       </c>
       <c r="S9" t="n">
-        <v>1799.771032257641</v>
+        <v>1630.55486405808</v>
       </c>
       <c r="T9" t="n">
-        <v>1605.147520810793</v>
+        <v>1435.931352611232</v>
       </c>
       <c r="U9" t="n">
-        <v>1377.047347865916</v>
+        <v>1207.831179666354</v>
       </c>
       <c r="V9" t="n">
-        <v>1141.895239634173</v>
+        <v>972.6790714346112</v>
       </c>
       <c r="W9" t="n">
-        <v>1141.895239634173</v>
+        <v>718.4417147064096</v>
       </c>
       <c r="X9" t="n">
-        <v>934.04373942864</v>
+        <v>510.5902145008768</v>
       </c>
       <c r="Y9" t="n">
-        <v>934.04373942864</v>
+        <v>302.8299157359228</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>61.40212593953608</v>
+        <v>44.34100425941038</v>
       </c>
       <c r="C10" t="n">
-        <v>61.40212593953608</v>
+        <v>44.34100425941038</v>
       </c>
       <c r="D10" t="n">
-        <v>61.40212593953608</v>
+        <v>44.34100425941038</v>
       </c>
       <c r="E10" t="n">
-        <v>61.40212593953608</v>
+        <v>44.34100425941038</v>
       </c>
       <c r="F10" t="n">
-        <v>61.40212593953608</v>
+        <v>44.34100425941038</v>
       </c>
       <c r="G10" t="n">
-        <v>61.40212593953608</v>
+        <v>44.34100425941038</v>
       </c>
       <c r="H10" t="n">
-        <v>61.40212593953608</v>
+        <v>44.34100425941038</v>
       </c>
       <c r="I10" t="n">
-        <v>61.40212593953608</v>
+        <v>44.34100425941038</v>
       </c>
       <c r="J10" t="n">
-        <v>44.34100425941066</v>
+        <v>44.34100425941038</v>
       </c>
       <c r="K10" t="n">
-        <v>95.74470838016751</v>
+        <v>95.74470838016666</v>
       </c>
       <c r="L10" t="n">
-        <v>191.4295496810362</v>
+        <v>191.4295496810346</v>
       </c>
       <c r="M10" t="n">
-        <v>295.5740818422662</v>
+        <v>295.5740818422638</v>
       </c>
       <c r="N10" t="n">
-        <v>405.099815709125</v>
+        <v>405.0998157091218</v>
       </c>
       <c r="O10" t="n">
-        <v>485.9514692712731</v>
+        <v>485.9514692712692</v>
       </c>
       <c r="P10" t="n">
-        <v>536.072055313974</v>
+        <v>536.0720553139696</v>
       </c>
       <c r="Q10" t="n">
-        <v>536.072055313974</v>
+        <v>536.0720553139696</v>
       </c>
       <c r="R10" t="n">
-        <v>427.7194258883567</v>
+        <v>536.0720553139696</v>
       </c>
       <c r="S10" t="n">
-        <v>228.8546084205836</v>
+        <v>337.2072378461963</v>
       </c>
       <c r="T10" t="n">
-        <v>228.8546084205836</v>
+        <v>337.2072378461963</v>
       </c>
       <c r="U10" t="n">
-        <v>228.8546084205836</v>
+        <v>48.08190169705239</v>
       </c>
       <c r="V10" t="n">
-        <v>61.40212593953608</v>
+        <v>48.08190169705239</v>
       </c>
       <c r="W10" t="n">
-        <v>61.40212593953608</v>
+        <v>48.08190169705239</v>
       </c>
       <c r="X10" t="n">
-        <v>61.40212593953608</v>
+        <v>48.08190169705239</v>
       </c>
       <c r="Y10" t="n">
-        <v>61.40212593953608</v>
+        <v>48.08190169705239</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1894.446607880606</v>
+        <v>1485.490329133574</v>
       </c>
       <c r="C11" t="n">
-        <v>1525.484090940194</v>
+        <v>1116.527812193163</v>
       </c>
       <c r="D11" t="n">
-        <v>1167.218392333444</v>
+        <v>1116.527812193163</v>
       </c>
       <c r="E11" t="n">
-        <v>781.4301397351996</v>
+        <v>805.8206670501952</v>
       </c>
       <c r="F11" t="n">
-        <v>370.4442349455921</v>
+        <v>394.8347622605876</v>
       </c>
       <c r="G11" t="n">
-        <v>370.4442349455923</v>
+        <v>394.8347622605876</v>
       </c>
       <c r="H11" t="n">
-        <v>77.53766591592073</v>
+        <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592073</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706899</v>
+        <v>304.4060796706893</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656967</v>
+        <v>695.1615405656963</v>
       </c>
       <c r="L11" t="n">
         <v>1216.83000462533</v>
@@ -5051,40 +5051,40 @@
         <v>1828.956123087832</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484043</v>
+        <v>2455.600890484044</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535297</v>
+        <v>3033.988513535298</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479995</v>
+        <v>3493.127967479997</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464061</v>
+        <v>3789.749829464063</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796036</v>
+        <v>3876.883295796039</v>
       </c>
       <c r="S11" t="n">
-        <v>3876.883295796036</v>
+        <v>3776.99935034538</v>
       </c>
       <c r="T11" t="n">
-        <v>3728.483080795304</v>
+        <v>3573.020743926744</v>
       </c>
       <c r="U11" t="n">
-        <v>3728.483080795304</v>
+        <v>3319.526802048273</v>
       </c>
       <c r="V11" t="n">
-        <v>3397.420193451733</v>
+        <v>2988.463914704702</v>
       </c>
       <c r="W11" t="n">
-        <v>3044.651538181619</v>
+        <v>2635.695259434588</v>
       </c>
       <c r="X11" t="n">
-        <v>2671.185779920539</v>
+        <v>2262.229501173508</v>
       </c>
       <c r="Y11" t="n">
-        <v>2281.046447944727</v>
+        <v>1872.090169197696</v>
       </c>
     </row>
     <row r="12">
@@ -5103,43 +5103,43 @@
         <v>618.1648558508402</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453848</v>
+        <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722697</v>
+        <v>312.3928428722696</v>
       </c>
       <c r="G12" t="n">
-        <v>176.274091040601</v>
+        <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390852</v>
+        <v>88.1320871839085</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592073</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870412</v>
+        <v>193.8410919870414</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046653</v>
+        <v>470.776996404666</v>
       </c>
       <c r="L12" t="n">
-        <v>889.4740370626168</v>
+        <v>889.4740370626179</v>
       </c>
       <c r="M12" t="n">
-        <v>1397.430603019145</v>
+        <v>1397.430603019146</v>
       </c>
       <c r="N12" t="n">
-        <v>1735.206074881278</v>
+        <v>1532.266717861144</v>
       </c>
       <c r="O12" t="n">
-        <v>2203.147119213801</v>
+        <v>2000.207762193667</v>
       </c>
       <c r="P12" t="n">
-        <v>2559.377995458575</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.5125363812047</v>
+        <v>394.3869424262209</v>
       </c>
       <c r="C13" t="n">
-        <v>814.5763534532978</v>
+        <v>225.4507594983139</v>
       </c>
       <c r="D13" t="n">
-        <v>664.459714040962</v>
+        <v>225.4507594983139</v>
       </c>
       <c r="E13" t="n">
-        <v>516.5466204585689</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="F13" t="n">
-        <v>369.6566729606586</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="G13" t="n">
-        <v>313.098695073286</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7028415717528</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592073</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758648</v>
+        <v>136.855221875865</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648143</v>
+        <v>364.1690246648147</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344808</v>
+        <v>710.5788654344815</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376939</v>
+        <v>1086.20859537694</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336947</v>
+        <v>1458.341306336948</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818664</v>
+        <v>1786.049800818666</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010722</v>
+        <v>2042.940349010724</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742807</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="R13" t="n">
-        <v>2056.743466925583</v>
+        <v>2056.743466925584</v>
       </c>
       <c r="S13" t="n">
-        <v>1868.627619458879</v>
+        <v>1868.627619458881</v>
       </c>
       <c r="T13" t="n">
-        <v>1868.627619458879</v>
+        <v>1647.736286893321</v>
       </c>
       <c r="U13" t="n">
-        <v>1868.627619458879</v>
+        <v>1358.644593842772</v>
       </c>
       <c r="V13" t="n">
-        <v>1613.943131252992</v>
+        <v>1103.960105636885</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.943131252992</v>
+        <v>814.5429355999245</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.953580354975</v>
+        <v>796.8279863999907</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.161001211444</v>
+        <v>576.0354072564605</v>
       </c>
     </row>
     <row r="14">
@@ -5255,28 +5255,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5285,22 +5285,22 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5309,16 +5309,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>120.6800663848328</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>454.6048385560535</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>949.9304447718124</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718124</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.528408326419</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057232</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778163</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654804</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830872</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>343.099465685177</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
         <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5455,31 +5455,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1903.49803132234</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1648.813543116454</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1359.396373079493</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1359.396373079493</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.603793935963</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5519,13 +5519,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>705.9324428257312</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5671,16 +5671,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782952</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038336</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179088</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="20">
@@ -5753,25 +5753,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>614.6217844681062</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>614.6217844681062</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>464.5051450557704</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557704</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>317.61519755786</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.61519755786</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,13 +5911,13 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
         <v>826.140538179774</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570817</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1245.052379339893</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1017.062828441876</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y22" t="n">
-        <v>796.2702492983459</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5981,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>924.8344286397182</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>1522.21291626627</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1522.21291626627</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C25" t="n">
-        <v>620.8230468926974</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D25" t="n">
-        <v>470.7064074803617</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>322.7933138979686</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1192.200273794374</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y25" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="26">
@@ -6224,19 +6224,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>741.8431516380891</v>
+        <v>513.8536007400722</v>
       </c>
       <c r="C28" t="n">
-        <v>741.8431516380891</v>
+        <v>344.9174178121654</v>
       </c>
       <c r="D28" t="n">
-        <v>591.7265122257534</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>443.8134186433603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>296.9234711454499</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570817</v>
@@ -6400,7 +6400,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138421</v>
       </c>
       <c r="Y28" t="n">
-        <v>923.4916164683289</v>
+        <v>695.502065570312</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6452,19 +6452,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6488,25 +6488,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429801</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853359</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580258</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580258</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580258</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.3616186032</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2227.3616186032</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1972.677130397313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1683.259960360352</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1455.270409462335</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1234.477830318805</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6698,10 +6698,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6713,10 +6713,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
@@ -6780,19 +6780,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>983.3556038098233</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C34" t="n">
-        <v>814.4194208819166</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D34" t="n">
-        <v>664.3027814695809</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>516.3896878871877</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>369.4997403892774</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>202.3036411041573</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1613.78619868161</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y34" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="35">
@@ -6926,31 +6926,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111725</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570817</v>
@@ -7111,7 +7111,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
@@ -7120,25 +7120,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T37" t="n">
-        <v>2272.857469997003</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1983.782243341201</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V37" t="n">
-        <v>1729.097755135314</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135314</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237297</v>
+        <v>983.3403484614386</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093767</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7166,7 +7166,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192599</v>
@@ -7175,7 +7175,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273902</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>692.9625378792909</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>1320.560501433898</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O39" t="n">
-        <v>1872.470231673185</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P39" t="n">
-        <v>2296.093381168253</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2529.355041543135</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.899304487669</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7336,7 +7336,7 @@
         <v>435.7419440038341</v>
       </c>
       <c r="L40" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7351,31 +7351,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179088</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7412,7 +7412,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
@@ -7424,13 +7424,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7488,25 +7488,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536378</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C43" t="n">
-        <v>705.932442825731</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133952</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310021</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7567,16 +7567,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782952</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038336</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570817</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1759.983708831312</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1505.299220625425</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583877</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,31 +7667,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7719,22 +7719,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273903</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>692.9625378792909</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400703</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121634</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121634</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121634</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121635</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270441</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138402</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.50206557031</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23261,10 +23261,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>74.33029638072395</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.1466220418456</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615213</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>55.02260750372469</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.959002459687</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>109.8306052484248</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.25352389927372</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,19 +23467,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.682419239904</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>208.1718556811026</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-1.084856474280017e-12</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>45.4467738245929</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856283</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>212.9610556929576</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>123.7828069546814</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>24.63391537253443</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>33.38525518063298</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>43.26526345294906</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>25.74504007796142</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>46.45968844822998</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>45.7142345943312</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>45.37941682721185</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823105</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>114.1584408891658</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>45.040892879864</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>72.11969353038594</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393072</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823122</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,10 +25795,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,13 +25840,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>4.506629716718725</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194217</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>912670.4233614433</v>
+        <v>912670.4233614436</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1004003.183745566</v>
+        <v>1004003.183745565</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1004003.183745566</v>
+        <v>1004003.183745565</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1004003.183745566</v>
+        <v>1004003.183745565</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1004003.183745566</v>
+        <v>1004003.183745565</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1004003.183745566</v>
+        <v>1004003.183745565</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1004003.183745566</v>
+        <v>1004003.183745565</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1004003.183745566</v>
+        <v>1004003.183745565</v>
       </c>
     </row>
     <row r="16">
@@ -26314,25 +26314,25 @@
         <v>431046.9291787487</v>
       </c>
       <c r="C2" t="n">
-        <v>431046.9291787488</v>
+        <v>431046.9291787489</v>
       </c>
       <c r="D2" t="n">
-        <v>431046.9291787487</v>
+        <v>431046.9291787486</v>
       </c>
       <c r="E2" t="n">
-        <v>384609.3532440577</v>
+        <v>384609.3532440581</v>
       </c>
       <c r="F2" t="n">
+        <v>423751.9648372532</v>
+      </c>
+      <c r="G2" t="n">
         <v>423751.9648372533</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>423751.9648372532</v>
       </c>
-      <c r="H2" t="n">
-        <v>423751.9648372533</v>
-      </c>
       <c r="I2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="J2" t="n">
         <v>423751.9648372532</v>
@@ -26341,7 +26341,7 @@
         <v>423751.9648372531</v>
       </c>
       <c r="L2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372531</v>
       </c>
       <c r="M2" t="n">
         <v>423751.9648372532</v>
@@ -26350,10 +26350,10 @@
         <v>423751.9648372532</v>
       </c>
       <c r="O2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.964837253</v>
       </c>
       <c r="P2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372531</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208452</v>
       </c>
       <c r="C3" t="n">
-        <v>392510.2442861776</v>
+        <v>392510.2442861779</v>
       </c>
       <c r="D3" t="n">
-        <v>12262.85603264307</v>
+        <v>12262.85603263958</v>
       </c>
       <c r="E3" t="n">
-        <v>395943.9567674492</v>
+        <v>395943.9567674533</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704296</v>
+        <v>189308.2687704282</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854456</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487771</v>
+        <v>91259.95686487779</v>
       </c>
       <c r="L3" t="n">
-        <v>3074.447349949967</v>
+        <v>3074.447349949046</v>
       </c>
       <c r="M3" t="n">
-        <v>103409.2608931117</v>
+        <v>103409.2608931127</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202369</v>
+        <v>49839.5741320235</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>174202.9900888977</v>
       </c>
       <c r="D4" t="n">
-        <v>170817.8827607418</v>
+        <v>170817.8827607428</v>
       </c>
       <c r="E4" t="n">
         <v>15941.16541224543</v>
@@ -26439,10 +26439,10 @@
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189199</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189199</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
         <v>16046.58397189197</v>
@@ -26451,13 +26451,13 @@
         <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.58397189203</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
-        <v>16046.58397189199</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="P4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189204</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26467,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
         <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
-        <v>86153.75444404171</v>
+        <v>86153.75444404143</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738566</v>
+        <v>85137.48506738571</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-495832.3385878401</v>
+        <v>-495832.3385878399</v>
       </c>
       <c r="C6" t="n">
-        <v>-220865.3870521988</v>
+        <v>-220865.3870521989</v>
       </c>
       <c r="D6" t="n">
-        <v>161812.4359413221</v>
+        <v>161812.4359413248</v>
       </c>
       <c r="E6" t="n">
-        <v>-112413.2540030226</v>
+        <v>-112634.3853170011</v>
       </c>
       <c r="F6" t="n">
-        <v>117274.5822710246</v>
+        <v>117239.8443455902</v>
       </c>
       <c r="G6" t="n">
-        <v>306582.8510414545</v>
+        <v>306548.1131160185</v>
       </c>
       <c r="H6" t="n">
-        <v>306582.8510414542</v>
+        <v>306548.1131160184</v>
       </c>
       <c r="I6" t="n">
-        <v>306582.8510414542</v>
+        <v>306548.1131160184</v>
       </c>
       <c r="J6" t="n">
-        <v>257517.9063129095</v>
+        <v>257483.1683874738</v>
       </c>
       <c r="K6" t="n">
-        <v>215322.8941765763</v>
+        <v>215288.1562511405</v>
       </c>
       <c r="L6" t="n">
-        <v>303508.4036915041</v>
+        <v>303473.6657660693</v>
       </c>
       <c r="M6" t="n">
-        <v>203173.5901483424</v>
+        <v>203138.8522229057</v>
       </c>
       <c r="N6" t="n">
-        <v>256743.2769094304</v>
+        <v>256708.5389839949</v>
       </c>
       <c r="O6" t="n">
-        <v>306582.8510414541</v>
+        <v>306548.1131160182</v>
       </c>
       <c r="P6" t="n">
-        <v>306582.8510414541</v>
+        <v>306548.1131160183</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129043</v>
       </c>
       <c r="C3" t="n">
         <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
-        <v>863.6234498573216</v>
+        <v>863.6234498573187</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.24123721495</v>
+        <v>1202.241237214951</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="C4" t="n">
         <v>542.1149567261632</v>
       </c>
       <c r="D4" t="n">
-        <v>554.2625532426332</v>
+        <v>554.2625532426298</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490091</v>
+        <v>969.2208239490096</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129043</v>
       </c>
       <c r="C3" t="n">
-        <v>305.2407236247795</v>
+        <v>305.2407236247798</v>
       </c>
       <c r="D3" t="n">
-        <v>9.912785319637464</v>
+        <v>9.912785319634622</v>
       </c>
       <c r="E3" t="n">
-        <v>338.6177873576286</v>
+        <v>338.6177873576323</v>
       </c>
       <c r="F3" t="n">
-        <v>165.734263126724</v>
+        <v>165.7342631267227</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="C4" t="n">
-        <v>354.5893695598434</v>
+        <v>354.5893695598435</v>
       </c>
       <c r="D4" t="n">
-        <v>12.14759651647</v>
+        <v>12.14759651646659</v>
       </c>
       <c r="E4" t="n">
-        <v>414.9582707063759</v>
+        <v>414.9582707063798</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506398</v>
+        <v>203.4874641506387</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.389458385364745e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598431</v>
+        <v>354.5893695598435</v>
       </c>
       <c r="L4" t="n">
-        <v>12.14759651647023</v>
+        <v>12.14759651646659</v>
       </c>
       <c r="M4" t="n">
-        <v>414.9582707063759</v>
+        <v>414.9582707063798</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506395</v>
+        <v>203.4874641506387</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598434</v>
+        <v>354.5893695598435</v>
       </c>
       <c r="L4" t="n">
-        <v>12.14759651647</v>
+        <v>12.14759651646659</v>
       </c>
       <c r="M4" t="n">
-        <v>414.9582707063759</v>
+        <v>414.9582707063798</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506398</v>
+        <v>203.4874641506387</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046877</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059421</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753916</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637382</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>37.38049896054406</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>90.65887400239221</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871061</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038152</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,19 +27455,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>73.79354210223623</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27476,10 +27476,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>58.90455890409151</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265844</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681384</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.3381812437712</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310554</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>124.5967353026333</v>
+        <v>18.24739803715775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27555,13 +27555,13 @@
         <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>91.59888258352609</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825421</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402857</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709392</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>68.68604055159729</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27591,7 +27591,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>234.0491352390161</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>226.7285614325603</v>
       </c>
       <c r="H5" t="n">
         <v>304.326804756183</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>291.4596845318924</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,10 +27695,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,7 +27746,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27758,10 +27758,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>123.8098916612593</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>71.30196035546899</v>
       </c>
     </row>
     <row r="7">
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.4515011109318</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>108.0728512656386</v>
+        <v>77.07210304633169</v>
       </c>
       <c r="S7" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2350578157167</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>178.3777507141361</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>241.4864877240791</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>303.918686916365</v>
+        <v>303.9186869163651</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.9052178731852</v>
+        <v>129.9052178731854</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>216.92444417592</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27929,19 +27929,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>168.7444462563355</v>
       </c>
       <c r="D9" t="n">
-        <v>38.45558277277554</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>135.4859120069138</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>35.56536036434007</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.34503645282952</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.1789700647269</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -27992,13 +27992,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>176.1284917186717</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28029,10 +28029,10 @@
         <v>148.3808817867763</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6165999743399</v>
+        <v>108.6165999743401</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>16.89051046332452</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.09786070099028</v>
+        <v>21.09786070099071</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>107.2691031313613</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,10 +28065,10 @@
         <v>221.2914415359382</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2340827876525</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>86.35968566759101</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-8.15987277746899e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2.706357804527215e-12</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29496,7 +29496,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>1.455191522836685e-12</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29700,7 +29700,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>-1.940255363782247e-12</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043116</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622678</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244293</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R2" t="n">
         <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924575</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31121,46 +31121,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590849</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L3" t="n">
         <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292672</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628871</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550072</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820367</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390159</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445815</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620012</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.9254218111419</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784856</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647908</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181393</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.0539478630406136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.471853064753049</v>
+        <v>3.471853064753037</v>
       </c>
       <c r="H8" t="n">
-        <v>35.55611519940217</v>
+        <v>35.55611519940206</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8486152788921</v>
+        <v>133.8486152788916</v>
       </c>
       <c r="J8" t="n">
-        <v>294.6691890545844</v>
+        <v>294.6691890545834</v>
       </c>
       <c r="K8" t="n">
-        <v>441.632729285581</v>
+        <v>441.6327292855796</v>
       </c>
       <c r="L8" t="n">
-        <v>547.8844525160173</v>
+        <v>547.8844525160155</v>
       </c>
       <c r="M8" t="n">
-        <v>609.6270194563192</v>
+        <v>609.6270194563173</v>
       </c>
       <c r="N8" t="n">
-        <v>619.491421976549</v>
+        <v>619.4914219765469</v>
       </c>
       <c r="O8" t="n">
-        <v>584.9681830639107</v>
+        <v>584.9681830639088</v>
       </c>
       <c r="P8" t="n">
-        <v>499.2568105278198</v>
+        <v>499.2568105278181</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9210726463511</v>
+        <v>374.9210726463498</v>
       </c>
       <c r="R8" t="n">
-        <v>218.0887900787939</v>
+        <v>218.0887900787932</v>
       </c>
       <c r="S8" t="n">
-        <v>79.11485171306018</v>
+        <v>79.11485171305992</v>
       </c>
       <c r="T8" t="n">
-        <v>15.19803679095648</v>
+        <v>15.19803679095643</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777482451802439</v>
+        <v>0.2777482451802429</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.85760515629688</v>
+        <v>1.857605156296874</v>
       </c>
       <c r="H9" t="n">
-        <v>17.9405550621304</v>
+        <v>17.94055506213034</v>
       </c>
       <c r="I9" t="n">
-        <v>63.95701963566015</v>
+        <v>63.95701963565993</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5029503148733</v>
+        <v>175.5029503148727</v>
       </c>
       <c r="K9" t="n">
-        <v>299.9624957867642</v>
+        <v>299.9624957867633</v>
       </c>
       <c r="L9" t="n">
-        <v>403.3365932564784</v>
+        <v>403.336593256477</v>
       </c>
       <c r="M9" t="n">
-        <v>470.6747801722402</v>
+        <v>470.6747801722387</v>
       </c>
       <c r="N9" t="n">
-        <v>483.1321410668804</v>
+        <v>483.1321410668788</v>
       </c>
       <c r="O9" t="n">
-        <v>441.9715215510389</v>
+        <v>441.9715215510374</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7211109423403</v>
+        <v>354.7211109423391</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1216687230895</v>
+        <v>237.1216687230888</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3344675111344</v>
+        <v>115.3344675111341</v>
       </c>
       <c r="S9" t="n">
-        <v>34.50420103911089</v>
+        <v>34.50420103911078</v>
       </c>
       <c r="T9" t="n">
-        <v>7.487452362442248</v>
+        <v>7.487452362442223</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222108655458475</v>
+        <v>0.122210865545847</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557353762037793</v>
+        <v>1.557353762037788</v>
       </c>
       <c r="H10" t="n">
-        <v>13.8462907206633</v>
+        <v>13.84629072066325</v>
       </c>
       <c r="I10" t="n">
-        <v>46.83387495291836</v>
+        <v>46.83387495291822</v>
       </c>
       <c r="J10" t="n">
-        <v>110.1049109760719</v>
+        <v>110.1049109760716</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9361916258453</v>
+        <v>180.9361916258447</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5360311306006</v>
+        <v>231.5360311305999</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1222810801605</v>
+        <v>244.1222810801597</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3175988762017</v>
+        <v>238.3175988762009</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1248753833056</v>
+        <v>220.1248753833048</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3548586377344</v>
+        <v>188.3548586377338</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4071409284556</v>
+        <v>130.4071409284551</v>
       </c>
       <c r="R10" t="n">
-        <v>70.02428824580838</v>
+        <v>70.02428824580815</v>
       </c>
       <c r="S10" t="n">
-        <v>27.1404287438768</v>
+        <v>27.14042874387671</v>
       </c>
       <c r="T10" t="n">
-        <v>6.654147892343295</v>
+        <v>6.654147892343273</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08494656883842516</v>
+        <v>0.08494656883842489</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869143</v>
+        <v>4.833130601869146</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639237</v>
+        <v>49.49729877639241</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285603</v>
+        <v>186.3292675285605</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203915</v>
+        <v>410.2059184203918</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975125</v>
+        <v>614.7923367975129</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544654</v>
+        <v>762.704257454466</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954558</v>
+        <v>848.6554437954563</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180165</v>
+        <v>862.3875761180171</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956802</v>
+        <v>814.3281336956808</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620356</v>
+        <v>695.0102219620361</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825968</v>
+        <v>521.9237322825971</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696628</v>
+        <v>303.599140169663</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900932</v>
+        <v>110.1349635900933</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968218</v>
+        <v>21.1570292096822</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495314</v>
+        <v>0.3866504481495316</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858572</v>
+        <v>2.585952849858574</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837095</v>
+        <v>24.97486041837097</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469207</v>
+        <v>89.03390294469214</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193136</v>
+        <v>244.3158348193138</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598379</v>
+        <v>417.5746757598383</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747747</v>
+        <v>561.4806834747751</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821477</v>
+        <v>655.2214742821483</v>
       </c>
       <c r="N12" t="n">
-        <v>472.5290573986189</v>
+        <v>267.5398078833307</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924472</v>
+        <v>615.2639659924477</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383444</v>
+        <v>493.8035753383448</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>330.0946129047542</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605175</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627652</v>
+        <v>48.03293999627655</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868433</v>
+        <v>10.42320468868434</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643798</v>
+        <v>0.1701284769643799</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535156</v>
+        <v>2.167976001535157</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092167</v>
+        <v>19.27527754092169</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798453</v>
+        <v>65.19695102798457</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085355</v>
+        <v>153.2759033085356</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329026</v>
+        <v>251.8793936329028</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100541</v>
+        <v>322.3189048100543</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770062</v>
+        <v>339.8400926770065</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531027</v>
+        <v>331.759454853103</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806238</v>
+        <v>306.433553380624</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493063</v>
+        <v>262.2068429493066</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194575</v>
+        <v>181.5384268194576</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811707</v>
+        <v>97.48008457811714</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493538</v>
+        <v>37.78190904493541</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377481</v>
+        <v>9.263170188377488</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473723</v>
+        <v>0.1182532364473724</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>152.1871379112058</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>650.5350891770659</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32318,13 +32318,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>514.8598010172138</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,10 +32333,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,13 +32549,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>140.7358547888808</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,7 +32801,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>520.3372160854087</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,10 +33260,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,13 +33500,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,7 +33515,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,19 +33968,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,13 +33989,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>539.5330155967683</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>169.6252075171357</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,28 +34208,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>361.1081696176612</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34442,22 +34442,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>752.2150000824579</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538867967</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788321</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915973</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065964</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781461</v>
       </c>
       <c r="L3" t="n">
         <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755145</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855685</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.6094444076499</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646072</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061146</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520818</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400467</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6232845278981</v>
+        <v>113.6232845278971</v>
       </c>
       <c r="K8" t="n">
-        <v>221.5428782406005</v>
+        <v>221.542878240599</v>
       </c>
       <c r="L8" t="n">
-        <v>312.1180375460301</v>
+        <v>312.1180375460282</v>
       </c>
       <c r="M8" t="n">
-        <v>379.2807862290465</v>
+        <v>379.2807862290446</v>
       </c>
       <c r="N8" t="n">
-        <v>390.078358379958</v>
+        <v>390.078358379956</v>
       </c>
       <c r="O8" t="n">
-        <v>354.869971642224</v>
+        <v>354.869971642222</v>
       </c>
       <c r="P8" t="n">
-        <v>268.0238147725502</v>
+        <v>268.0238147725486</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6153827719016</v>
+        <v>152.6153827719004</v>
       </c>
       <c r="R8" t="n">
-        <v>2.503252264661796</v>
+        <v>2.503252264661057</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.66532364820659</v>
+        <v>48.665323648206</v>
       </c>
       <c r="K9" t="n">
-        <v>162.1210568124052</v>
+        <v>162.1210568124043</v>
       </c>
       <c r="L9" t="n">
-        <v>264.7822134766042</v>
+        <v>264.7822134766029</v>
       </c>
       <c r="M9" t="n">
-        <v>328.5407462502219</v>
+        <v>328.5407462502204</v>
       </c>
       <c r="N9" t="n">
-        <v>351.790428983547</v>
+        <v>351.7904289835454</v>
       </c>
       <c r="O9" t="n">
-        <v>299.3752771065945</v>
+        <v>299.375277106593</v>
       </c>
       <c r="P9" t="n">
-        <v>220.7467035280101</v>
+        <v>220.7467035280089</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.13989463706801</v>
+        <v>97.13989463706724</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>51.92293345530996</v>
+        <v>51.92293345530936</v>
       </c>
       <c r="L10" t="n">
-        <v>96.65135484936235</v>
+        <v>96.65135484936158</v>
       </c>
       <c r="M10" t="n">
-        <v>105.1964971325555</v>
+        <v>105.1964971325547</v>
       </c>
       <c r="N10" t="n">
-        <v>110.6320544109685</v>
+        <v>110.6320544109677</v>
       </c>
       <c r="O10" t="n">
-        <v>81.66833693146279</v>
+        <v>81.66833693146205</v>
       </c>
       <c r="P10" t="n">
-        <v>50.62685458858681</v>
+        <v>50.62685458858621</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937052</v>
+        <v>229.1600138937055</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525319</v>
+        <v>394.7024857525324</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844781</v>
+        <v>526.9378424844788</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681831</v>
+        <v>618.3092105681836</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214256</v>
+        <v>632.9745125214263</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739935</v>
+        <v>584.229922273994</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067661</v>
+        <v>463.7772262067666</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081473</v>
+        <v>299.6180424081476</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553068</v>
+        <v>88.01360235553091</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.4782081526469</v>
+        <v>117.4782081526471</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854789</v>
+        <v>279.7332367854793</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949005</v>
+        <v>422.9263036949009</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601294</v>
+        <v>513.0874403601299</v>
       </c>
       <c r="N12" t="n">
-        <v>341.1873453152855</v>
+        <v>136.1980957999974</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480028</v>
+        <v>472.6677215480032</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240141</v>
+        <v>359.8291679240145</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>190.1128388187327</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655353</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186273</v>
+        <v>59.91672319186284</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070197</v>
+        <v>229.6099018070199</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703702</v>
+        <v>349.9089300703704</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388468</v>
+        <v>379.4239696388471</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323313</v>
+        <v>375.8916272323316</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946635</v>
+        <v>331.0186812946637</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141998</v>
+        <v>259.4854022142001</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776309</v>
+        <v>95.37638356776323</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>25.34951124453909</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>519.1933770937326</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,13 +35966,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>376.3054212373396</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,10 +35981,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36045,7 +36045,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
         <v>426.2724270010451</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,7 +36449,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>377.7409716409642</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36531,7 +36531,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36996,7 +36996,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010432</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
@@ -37148,13 +37148,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,7 +37163,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,13 +37400,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,19 +37616,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,13 +37637,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>405.558608182438</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>23.94570355317173</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>222.5537898377871</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>285.360777932</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>620.8732879991246</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
